--- a/wzrv/expdata/2003.xlsx
+++ b/wzrv/expdata/2003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>target</t>
   </si>
   <si>
-    <t xml:space="preserve">CDF(e) </t>
+    <t>CDF(e)</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/wzrv/expdata/2003.xlsx
+++ b/wzrv/expdata/2003.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\High x\Datasheets\wzrv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C09E096-8CEE-0245-AC91-CCD557BC7A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -77,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -391,20 +401,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="12" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="12" width="10.83203125" style="1" customWidth="1"/>
     <col min="1024" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -442,7 +452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -482,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -522,7 +532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -562,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -602,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -642,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -682,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -722,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -762,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -802,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -842,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>

--- a/wzrv/expdata/2003.xlsx
+++ b/wzrv/expdata/2003.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C09E096-8CEE-0245-AC91-CCD557BC7A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CAFC24-EE30-5146-8967-CB214E382311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
   <si>
     <t>cms</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>CDF(e)</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -402,19 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="1024" max="1026" width="10.5" customWidth="1"/>
+    <col min="3" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1025" max="1027" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -431,28 +434,31 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -468,31 +474,34 @@
       <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
         <v>3.4</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1.6</v>
       </c>
-      <c r="I2" s="1">
-        <f t="shared" ref="I2:I12" si="0">G2/100</f>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2:J12" si="0">H2/100</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:J12" si="1">H2/100</f>
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K12" si="1">I2/100</f>
         <v>1.6E-2</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -508,31 +517,34 @@
       <c r="E3" s="1">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
         <v>6.2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>1.2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
         <v>6.2E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <f t="shared" si="1"/>
         <v>1.2E-2</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -548,31 +560,34 @@
       <c r="E4" s="1">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
         <v>7.5</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1.5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <f t="shared" si="1"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -588,31 +603,34 @@
       <c r="E5" s="1">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
         <v>12.6</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>1.3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="1"/>
         <v>1.3000000000000001E-2</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -628,31 +646,34 @@
       <c r="E6" s="1">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
         <v>12.2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>1.6</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>0.122</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
         <v>1.6E-2</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -668,31 +689,34 @@
       <c r="E7" s="1">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
         <v>13.8</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="0"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
         <v>2.3E-2</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -708,31 +732,34 @@
       <c r="E8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
         <v>16.8</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>1.6</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="0"/>
         <v>0.16800000000000001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
         <v>1.6E-2</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -748,31 +775,34 @@
       <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>13</v>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H9" s="1">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
         <v>1.8</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="1"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -788,31 +818,34 @@
       <c r="E10" s="1">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2.9</v>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H10" s="1">
         <v>2.9</v>
       </c>
       <c r="I10" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="1"/>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -828,31 +861,34 @@
       <c r="E11" s="1">
         <v>25</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
         <v>-0.4</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>6.2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="1"/>
         <v>6.2E-2</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -868,27 +904,30 @@
       <c r="E12" s="1">
         <v>25</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="F12" s="1">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
         <v>-29</v>
       </c>
-      <c r="H12" s="1">
-        <v>10</v>
-      </c>
       <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>-0.28999999999999998</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/wzrv/expdata/2003.xlsx
+++ b/wzrv/expdata/2003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CAFC24-EE30-5146-8967-CB214E382311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE80F060-B50D-F34A-9912-4D279A9D7C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -561,7 +561,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>10</v>
@@ -647,7 +647,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
@@ -690,7 +690,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>10</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
@@ -819,7 +819,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>10</v>
@@ -862,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
@@ -905,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>

--- a/wzrv/expdata/2003.xlsx
+++ b/wzrv/expdata/2003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE80F060-B50D-F34A-9912-4D279A9D7C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C9B1D4-91CE-5C49-B64D-58BEE543F278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -518,7 +518,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -561,7 +561,7 @@
         <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
@@ -604,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>10</v>
@@ -647,7 +647,7 @@
         <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>10</v>
@@ -690,7 +690,7 @@
         <v>25</v>
       </c>
       <c r="F7" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>10</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
@@ -819,7 +819,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>10</v>
@@ -862,7 +862,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>10</v>
@@ -905,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>10</v>

--- a/wzrv/expdata/2003.xlsx
+++ b/wzrv/expdata/2003.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C9B1D4-91CE-5C49-B64D-58BEE543F278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B5E70D-0EFF-B04D-98A4-00D51388A5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
   <si>
     <t>cms</t>
   </si>
@@ -82,22 +82,26 @@
   </si>
   <si>
     <t>CDF(e)</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,9 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,60 +412,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="13" width="10.83203125" style="1" customWidth="1"/>
-    <col min="1025" max="1027" width="10.5" customWidth="1"/>
+    <col min="3" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1024" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -474,34 +478,31 @@
       <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="1">
-        <v>59</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.4</v>
       </c>
       <c r="H2" s="1">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="I2" s="1">
-        <v>1.6</v>
+        <f t="shared" ref="I2:I12" si="0">G2/100</f>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J2" s="1">
-        <f t="shared" ref="J2:J12" si="0">H2/100</f>
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K12" si="1">I2/100</f>
+        <f t="shared" ref="J2:J12" si="1">H2/100</f>
         <v>1.6E-2</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -517,34 +518,31 @@
       <c r="E3" s="1">
         <v>25</v>
       </c>
-      <c r="F3" s="1">
-        <v>59</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.2</v>
       </c>
       <c r="H3" s="1">
-        <v>6.2</v>
+        <v>1.2</v>
       </c>
       <c r="I3" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="J3" s="1">
         <f t="shared" si="0"/>
         <v>6.2E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="J3" s="1">
         <f t="shared" si="1"/>
         <v>1.2E-2</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -560,34 +558,31 @@
       <c r="E4" s="1">
         <v>25</v>
       </c>
-      <c r="F4" s="1">
-        <v>59</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.5</v>
       </c>
       <c r="H4" s="1">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="I4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="J4" s="1">
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -603,34 +598,31 @@
       <c r="E5" s="1">
         <v>25</v>
       </c>
-      <c r="F5" s="1">
-        <v>59</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12.6</v>
       </c>
       <c r="H5" s="1">
-        <v>12.6</v>
+        <v>1.3</v>
       </c>
       <c r="I5" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="J5" s="1">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
-      <c r="K5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>1.3000000000000001E-2</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -646,34 +638,31 @@
       <c r="E6" s="1">
         <v>25</v>
       </c>
-      <c r="F6" s="1">
-        <v>59</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12.2</v>
       </c>
       <c r="H6" s="1">
-        <v>12.2</v>
+        <v>1.6</v>
       </c>
       <c r="I6" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="J6" s="1">
         <f t="shared" si="0"/>
         <v>0.122</v>
       </c>
-      <c r="K6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>1.6E-2</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -689,34 +678,31 @@
       <c r="E7" s="1">
         <v>25</v>
       </c>
-      <c r="F7" s="1">
-        <v>59</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>13.8</v>
       </c>
       <c r="H7" s="1">
-        <v>13.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J7" s="1">
         <f t="shared" si="0"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="K7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>2.3E-2</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -732,34 +718,31 @@
       <c r="E8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="1">
-        <v>59</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16.8</v>
       </c>
       <c r="H8" s="1">
-        <v>16.8</v>
+        <v>1.6</v>
       </c>
       <c r="I8" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="J8" s="1">
         <f t="shared" si="0"/>
         <v>0.16800000000000001</v>
       </c>
-      <c r="K8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>1.6E-2</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -775,34 +758,31 @@
       <c r="E9" s="1">
         <v>25</v>
       </c>
-      <c r="F9" s="1">
-        <v>59</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <v>13</v>
       </c>
       <c r="H9" s="1">
-        <v>13</v>
+        <v>1.8</v>
       </c>
       <c r="I9" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="J9" s="1">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
-      <c r="K9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>1.8000000000000002E-2</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -818,34 +798,31 @@
       <c r="E10" s="1">
         <v>25</v>
       </c>
-      <c r="F10" s="1">
-        <v>59</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2.9</v>
       </c>
       <c r="H10" s="1">
         <v>2.9</v>
       </c>
       <c r="I10" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="K10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>2.8999999999999998E-2</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -861,34 +838,31 @@
       <c r="E11" s="1">
         <v>25</v>
       </c>
-      <c r="F11" s="1">
-        <v>59</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.4</v>
       </c>
       <c r="H11" s="1">
-        <v>-0.4</v>
+        <v>6.2</v>
       </c>
       <c r="I11" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="J11" s="1">
         <f t="shared" si="0"/>
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="K11" s="1">
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>6.2E-2</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -904,30 +878,27 @@
       <c r="E12" s="1">
         <v>25</v>
       </c>
-      <c r="F12" s="1">
-        <v>59</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-29</v>
       </c>
       <c r="H12" s="1">
-        <v>-29</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
         <f t="shared" si="0"/>
         <v>-0.28999999999999998</v>
       </c>
-      <c r="K12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="L12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
